--- a/data/evaluation/evaluation_South_Summer_Lemons.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Lemons.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1414.065135945925</v>
+        <v>1386.388014011612</v>
       </c>
       <c r="C4" t="n">
-        <v>3661174.156189755</v>
+        <v>3644529.804256742</v>
       </c>
       <c r="D4" t="n">
-        <v>1913.419492999315</v>
+        <v>1909.065165010546</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04110859243661769</v>
+        <v>-0.03637552673863609</v>
       </c>
     </row>
     <row r="5">
